--- a/Homework14/homework/part-1/Instructions/Data/Book1.xlsx
+++ b/Homework14/homework/part-1/Instructions/Data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhavaniyella/Documents/GitHub/DATA_CHALLENGE/Homework14/homework/part-1/Instructions/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{810D5985-8ED0-E944-B3A1-EBD7AA9E2CE0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E93F269-51F6-6249-A20B-60B450424EBB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27720" windowHeight="17040" xr2:uid="{DA8F3C7A-AA7F-964F-BFE4-1263A14F9D5E}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27720" windowHeight="17040" activeTab="1" xr2:uid="{DA8F3C7A-AA7F-964F-BFE4-1263A14F9D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2357,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8909DD3D-96DB-3243-811F-B267D33F813D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2417,7 +2417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FB54BC-777F-C447-815D-EADEA83B09CF}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
